--- a/src/static/kasen2.xlsx
+++ b/src/static/kasen2.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet99" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="河川" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -457,12 +457,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>河川名_10</t>
+          <t>河川名_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -472,19 +472,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>河川名_100</t>
+          <t>河川名_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -494,19 +494,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>河川名_11</t>
+          <t>河川名_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>河川名_12</t>
+          <t>河川名_5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,19 +538,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>河川名_13</t>
+          <t>河川名_6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>河川名_14</t>
+          <t>河川名_7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -582,19 +582,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>河川名_15</t>
+          <t>河川名_8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -604,19 +604,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>河川名_16</t>
+          <t>河川名_9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -626,19 +626,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>河川名_17</t>
+          <t>河川名_10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -648,19 +648,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>河川名_18</t>
+          <t>河川名_11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -670,19 +670,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>河川名_19</t>
+          <t>河川名_12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -692,19 +692,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>河川名_2</t>
+          <t>河川名_13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -714,19 +714,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>河川名_20</t>
+          <t>河川名_14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -736,19 +736,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>河川名_21</t>
+          <t>河川名_15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -758,19 +758,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>河川名_22</t>
+          <t>河川名_16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -780,19 +780,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>河川名_23</t>
+          <t>河川名_17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -802,19 +802,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>河川名_24</t>
+          <t>河川名_18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -824,19 +824,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>河川名_25</t>
+          <t>河川名_19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -846,19 +846,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河川名_26</t>
+          <t>河川名_20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -868,19 +868,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>河川名_27</t>
+          <t>河川名_21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -890,19 +890,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>河川名_28</t>
+          <t>河川名_22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -912,19 +912,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>河川名_29</t>
+          <t>河川名_23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -934,19 +934,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>河川名_3</t>
+          <t>河川名_24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -956,19 +956,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>河川名_30</t>
+          <t>河川名_25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -978,19 +978,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>河川名_31</t>
+          <t>河川名_26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1000,19 +1000,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>河川名_32</t>
+          <t>河川名_27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1022,19 +1022,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>河川名_33</t>
+          <t>河川名_28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1044,19 +1044,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>河川名_34</t>
+          <t>河川名_29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>河川名_35</t>
+          <t>河川名_30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1088,19 +1088,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>河川名_36</t>
+          <t>河川名_31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1110,19 +1110,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>河川名_37</t>
+          <t>河川名_32</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1132,19 +1132,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>河川名_38</t>
+          <t>河川名_33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>河川名_39</t>
+          <t>河川名_34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1176,19 +1176,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>河川名_4</t>
+          <t>河川名_35</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>河川名_40</t>
+          <t>河川名_36</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1220,19 +1220,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>河川名_41</t>
+          <t>河川名_37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1242,19 +1242,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>河川名_42</t>
+          <t>河川名_38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1264,19 +1264,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>河川名_43</t>
+          <t>河川名_39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1286,19 +1286,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>河川名_44</t>
+          <t>河川名_40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1308,19 +1308,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河川名_45</t>
+          <t>河川名_41</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1330,19 +1330,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>河川名_46</t>
+          <t>河川名_42</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1352,19 +1352,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>河川名_47</t>
+          <t>河川名_43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>河川名_48</t>
+          <t>河川名_44</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1396,19 +1396,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>河川名_49</t>
+          <t>河川名_45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1418,19 +1418,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>河川名_5</t>
+          <t>河川名_46</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1440,19 +1440,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>河川名_50</t>
+          <t>河川名_47</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1462,19 +1462,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>河川名_51</t>
+          <t>河川名_48</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1484,19 +1484,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>河川名_52</t>
+          <t>河川名_49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>河川名_53</t>
+          <t>河川名_50</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1528,19 +1528,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>河川名_54</t>
+          <t>河川名_51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1550,19 +1550,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>河川名_55</t>
+          <t>河川名_52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1572,19 +1572,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>河川名_56</t>
+          <t>河川名_53</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1594,19 +1594,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>河川名_57</t>
+          <t>河川名_54</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1616,19 +1616,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>河川名_58</t>
+          <t>河川名_55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1638,19 +1638,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>河川名_59</t>
+          <t>河川名_56</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1660,19 +1660,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>河川名_6</t>
+          <t>河川名_57</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河川名_60</t>
+          <t>河川名_58</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1704,19 +1704,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>河川名_61</t>
+          <t>河川名_59</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1726,19 +1726,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>河川名_62</t>
+          <t>河川名_60</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1748,19 +1748,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>河川名_63</t>
+          <t>河川名_61</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1770,19 +1770,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>河川名_64</t>
+          <t>河川名_62</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1792,19 +1792,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>河川名_65</t>
+          <t>河川名_63</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1814,19 +1814,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>河川名_66</t>
+          <t>河川名_64</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1836,19 +1836,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>河川名_67</t>
+          <t>河川名_65</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1858,19 +1858,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>河川名_68</t>
+          <t>河川名_66</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1880,19 +1880,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>河川名_69</t>
+          <t>河川名_67</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1902,19 +1902,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>67</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>河川名_7</t>
+          <t>河川名_68</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1924,19 +1924,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>河川名_70</t>
+          <t>河川名_69</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1946,19 +1946,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>河川名_71</t>
+          <t>河川名_70</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1968,19 +1968,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>河川名_72</t>
+          <t>河川名_71</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>河川名_73</t>
+          <t>河川名_72</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2012,19 +2012,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>河川名_74</t>
+          <t>河川名_73</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2034,19 +2034,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>河川名_75</t>
+          <t>河川名_74</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2056,19 +2056,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>河川名_76</t>
+          <t>河川名_75</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2078,19 +2078,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>河川名_77</t>
+          <t>河川名_76</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2100,19 +2100,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>河川名_78</t>
+          <t>河川名_77</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2122,19 +2122,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>河川名_79</t>
+          <t>河川名_78</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2144,19 +2144,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>河川名_8</t>
+          <t>河川名_79</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2393,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>河川名_9</t>
+          <t>河川名_90</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2408,19 +2408,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>河川名_90</t>
+          <t>河川名_91</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2430,19 +2430,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>河川名_91</t>
+          <t>河川名_92</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2452,19 +2452,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>河川名_92</t>
+          <t>河川名_93</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2474,19 +2474,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>河川名_93</t>
+          <t>河川名_94</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2496,19 +2496,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>河川名_94</t>
+          <t>河川名_95</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2518,19 +2518,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>河川名_95</t>
+          <t>河川名_96</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2540,19 +2540,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>河川名_96</t>
+          <t>河川名_97</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>河川名_97</t>
+          <t>河川名_98</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2584,19 +2584,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>河川名_98</t>
+          <t>河川名_99</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>河川名_99</t>
+          <t>河川名_100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
     </row>
